--- a/SQL学習用.xlsx
+++ b/SQL学習用.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DC-PCN1139\OneDrive\デスクトップ\SQL学習用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144DDA47-3B0C-4098-8CF5-BCD35907D30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6978B235-4D38-4BDF-87C1-6FD019F891F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="3" r:id="rId1"/>
@@ -18,17 +18,28 @@
     <sheet name="SQL学習" sheetId="2" r:id="rId3"/>
     <sheet name="設計学習" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="229">
   <si>
     <t>社員テーブル</t>
     <rPh sb="0" eb="2">
@@ -1146,12 +1157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://snome.jp/database/db-intro-4/</t>
-  </si>
-  <si>
-    <t>https://www.javadrive.jp/mysql/join/index1.html</t>
-  </si>
-  <si>
     <t>他にも検索すると色々あると思います。</t>
     <rPh sb="0" eb="1">
       <t>ホカ</t>
@@ -1392,166 +1397,6 @@
     <t>SELECT</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">    emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>employee_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>employee_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>organization_cd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">organization_name </t>
-    </r>
-  </si>
-  <si>
     <t>FROM</t>
   </si>
   <si>
@@ -1836,7 +1681,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">            </t>
+      <t xml:space="preserve">        </t>
     </r>
     <r>
       <rPr>
@@ -1846,51 +1691,6 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>THEN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">employee_name </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>ELSE</t>
     </r>
     <r>
@@ -1912,251 +1712,6 @@
         <charset val="128"/>
       </rPr>
       <t>'退職'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>END</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>AS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> employee_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> org</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>organization_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>TRUNCATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>AVG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>sal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>salary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>),</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -2423,6 +1978,413 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">    emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>retire_flag</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'A0001'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">retire_flag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>https://products.sint.co.jp/topsic/blog/sql-bootcamp-03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            tt_employee emp </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>INNER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> tt_salary sal </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">employee_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> sal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">employee_cd </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">    org</t>
     </r>
     <r>
@@ -2443,6 +2405,221 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve">organization_cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'組織コード'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'組織名'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">retire_flag </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'退職フラグ'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_cd </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ORDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>organization_cd</t>
     </r>
   </si>
@@ -2468,6 +2645,41 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t xml:space="preserve"> retire_flag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t xml:space="preserve"> COUNT</t>
     </r>
     <r>
@@ -2510,6 +2722,653 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'フラグ人数'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.javadrive.jp/mysql/join/index1.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://snome.jp/database/db-intro-4/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>給与総額テーブル</t>
+    <rPh sb="0" eb="4">
+      <t>キュウヨソウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払年月日</t>
+    <rPh sb="0" eb="2">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TT_TOTAL_PAYMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払総額</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOTAL_PAYMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>INNER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> tt_salary sal </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    sal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">payment_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>IN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            DATE_FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>payment_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'%Y%m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">            tt_total_payment total </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            DATE_FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>total</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>payment_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'%Y/%m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BETWEEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'2023/01'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'2023/07'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">employee_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'1001'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'A0001'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>← 無い場合は表示しない</t>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -2533,7 +3392,17 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>retire_flag</t>
+      <t xml:space="preserve">employee_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'社員ID'</t>
     </r>
   </si>
   <si>
@@ -2578,7 +3447,22 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>organization_cd</t>
+      <t xml:space="preserve">employee_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'社員名'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
     </r>
     <r>
       <rPr>
@@ -2588,1207 +3472,1773 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">join_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'入社年月日'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'組織コード'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> sal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">employee_cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'社員コード'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> sal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">payment_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'支払い年月'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> sal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'給与'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'組織コード'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'組織名'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">retire_flag </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'退職フラグ'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>TRUNCATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AVG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>sal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>salary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'平均給与'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">employee_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'社員ID'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">employee_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'社員名'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'組織コード'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'組織名'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> sal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">payment_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'支払い年月'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> sal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'給与'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> ROW_NUMBER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>OVER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>PARTITION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_cd </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ORDER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>BY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    sal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">salary </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>DESC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'給与ランク'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>INNER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> tt_organization org </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> emp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_cd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> org</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">organization_cd </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            sal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">payment_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>'202306'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0080FF"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>AS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> TEST </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    給与ランク </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF2800"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808080"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
       <t>;</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">    emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">organization_cd </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'A0001'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>AND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">retire_flag </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t>https://products.sint.co.jp/topsic/blog/sql-bootcamp-03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>SELECT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>employee_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>organization_cd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> sal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>salary</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">organization_size </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>:=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>IF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">organization_cd </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>organization_cd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">organization_size </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>AS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> organization_size</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>@</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">organization_cd </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>:=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">organization_cd </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>FROM</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">            tt_employee emp </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>INNER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>JOIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> tt_salary sal </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ON</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">employee_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> sal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">employee_cd </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>WHERE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            sal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">payment_date </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>'202306'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ORDER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>BY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>organization_cd</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> sal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">salary </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0080FF"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>DESC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> emp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>employee_id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> test </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    organization_size </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF808080"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF2800"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <t>MySQLでカテゴリー（グループ）ごとのTOP3（ランキング上位3つ）ずつ抽出する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://web-engineer.hatenadiary.jp/entry/2017/08/27/180039</t>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員ID</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織名</t>
+    <rPh sb="0" eb="3">
+      <t>ソシキメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均給与</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現職/退職</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現職</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均給与額検索</t>
+    <rPh sb="0" eb="4">
+      <t>ヘイキンキュウヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金子　千尋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇田川　優希</t>
+    <rPh sb="0" eb="3">
+      <t>ウダガワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヤサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平野　佳寿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮城　大弥</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山岡　泰輔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退職</t>
+    <rPh sb="0" eb="2">
+      <t>タイショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期状態</t>
+    <rPh sb="0" eb="4">
+      <t>ショキジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・平均給与額計算の文言と「検索」ボタン</t>
+    <rPh sb="1" eb="3">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モンゴン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・リストは空の状態で表示</t>
+    <rPh sb="5" eb="6">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「給与データがない社員を省く」チェックボタン（false）</t>
+    <rPh sb="2" eb="4">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□給与データがない社員を省く</t>
+    <rPh sb="1" eb="3">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「検索」ボタン押下処理</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・問2のSQLを実行し、リストに格納する</t>
+    <rPh sb="1" eb="2">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスト&lt;問2戻り値&gt; = 問2SQL実行</t>
+    <rPh sb="4" eb="5">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>false の場合 → LEFT JOIN</t>
+  </si>
+  <si>
+    <t>RETIRE_FLGA = 0 の場合「現職」、1 の場合 「退職」 としてリストに表示する</t>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゲンショク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>タイショク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・チェックボタンが true の場合 → 給与テーブルの結合をINNER JOIN</t>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キュウヨ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケツゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3799,7 +5249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3867,8 +5317,24 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3887,8 +5353,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -3911,6 +5401,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3920,7 +5542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3953,6 +5575,81 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4490,7 +6187,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INTO learn_sql.tt_organization(organization_cd, organization_name) </a:t>
+            <a:t>INTO tt_organization(organization_cd, organization_name) </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -4925,7 +6622,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INSERT INTO learn_sql.tt_salary(employee_cd,payment_date,salary) VALUES </a:t>
+            <a:t>INSERT INTO tt_salary(employee_cd,payment_date,salary) VALUES </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5526,7 +7223,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>INSERT INTO learn_sql.tt_employee(employee_id,employee_name,join_date,organization_cd,retire_flag) VALUES </a:t>
+            <a:t>INSERT INTO tt_employee(employee_id,employee_name,join_date,organization_cd,retire_flag) VALUES </a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
@@ -6247,30 +7944,415 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5763C7E9-55EB-47AE-8A02-80EE8A67600B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="14401800"/>
+          <a:ext cx="3190875" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CREATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TABLE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> TT_TOTAL_PAYMENT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>    payment_date </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DATE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NOT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> total_payment </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NOT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>NULL</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>);</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D537917-C702-447D-ABCA-919541DACE45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="14439900"/>
+          <a:ext cx="3190875" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>INSERT INTO tt_total_payment(payment_date,total_payment) VALUES </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    (DATE '2023-05-25',2200000)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  , (DATE '2023-06-25',1520000)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  , (DATE '2023-07-25',1320000);</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>96094</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>200452</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>57490</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>209745</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
+        <xdr:cNvPr id="22" name="図 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B9B406-9862-BB36-9EB0-789787452A23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4701408-CD00-A0D0-136B-F77C4F5233F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6286,8 +8368,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048125" y="7620000"/>
-          <a:ext cx="6049219" cy="3057952"/>
+          <a:off x="4048125" y="15954375"/>
+          <a:ext cx="2438740" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>124507</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>133468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA64396-C77C-8165-3BED-923B51313A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="22860000"/>
+          <a:ext cx="4887007" cy="847843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>218780</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>56994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{006DFE94-3CEA-AF77-C9A9-DFF40D2FCB49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="2619375"/>
+          <a:ext cx="2361905" cy="1247619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6305,21 +8485,21 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>86568</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>67050</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>162413</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>48064</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
+        <xdr:cNvPr id="26" name="図 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F263B18E-57D6-70AF-32AE-2FF1E423D385}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43A351B-B589-B57C-D7C4-3B527CA32366}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6328,15 +8508,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048125" y="10953750"/>
-          <a:ext cx="6039693" cy="2686425"/>
+          <a:off x="4048125" y="7858125"/>
+          <a:ext cx="3496163" cy="3143689"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6354,119 +8534,21 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>180536</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>180804</xdr:rowOff>
+      <xdr:colOff>124308</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>124208</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
+        <xdr:cNvPr id="27" name="図 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55154F5-E569-44D2-B693-9B2BD888E2FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4048125" y="6667500"/>
-          <a:ext cx="3514286" cy="1371429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>162513</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>200186</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE2311DA-9975-FEFB-21DD-8CAA8B2A4212}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4048125" y="2619375"/>
-          <a:ext cx="4210638" cy="1152686"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>67515</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>209845</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747DEA18-4646-4A32-9AC3-6689A227CA84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E33F69-9EF3-E566-252B-E425578CCC65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6482,8 +8564,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4286250" y="8810625"/>
-          <a:ext cx="6020640" cy="2114845"/>
+          <a:off x="4048125" y="11430000"/>
+          <a:ext cx="3458058" cy="2743583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>181499</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>105022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6714E30-0194-347C-D548-098DB0506F7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="11906250"/>
+          <a:ext cx="3753374" cy="1771897"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6765,15 +8896,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
@@ -6793,7 +8922,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
@@ -6808,7 +8937,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -6827,13 +8956,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
-        <v>89</v>
+      <c r="B21" s="10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>90</v>
+      <c r="B22" s="10" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
@@ -6843,7 +8972,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B25" s="10" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
@@ -6853,13 +8982,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="B25" r:id="rId1" xr:uid="{F5B7067E-573C-436D-A2C6-DC0D819673B2}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{CDB38DC3-E7BD-4312-B341-E4E5CBEBC59F}"/>
+    <hyperlink ref="B21" r:id="rId3" xr:uid="{1E0B92EC-3CA9-4112-AF0E-7A6E015388CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6867,7 +8998,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:J77"/>
+  <dimension ref="A2:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6883,7 +9014,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
@@ -6891,7 +9022,7 @@
         <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
@@ -6899,7 +9030,7 @@
         <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -6907,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -6929,19 +9060,19 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -6963,19 +9094,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -7255,7 +9386,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -7268,10 +9399,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B30" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -7284,10 +9415,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B32" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -7327,7 +9458,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -7343,13 +9474,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B40" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -7365,13 +9496,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B42" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -7616,7 +9747,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B65" s="3">
         <v>1012</v>
       </c>
@@ -7627,7 +9758,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B66" s="3">
         <v>1013</v>
       </c>
@@ -7638,7 +9769,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B67" s="3">
         <v>1014</v>
       </c>
@@ -7649,7 +9780,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B68" s="3">
         <v>1015</v>
       </c>
@@ -7660,7 +9791,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B69" s="3">
         <v>1001</v>
       </c>
@@ -7671,7 +9802,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B70" s="3">
         <v>1007</v>
       </c>
@@ -7682,7 +9813,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B71" s="3">
         <v>1008</v>
       </c>
@@ -7693,7 +9824,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B72" s="3">
         <v>1009</v>
       </c>
@@ -7704,7 +9835,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B73" s="3">
         <v>1011</v>
       </c>
@@ -7715,7 +9846,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B74" s="3">
         <v>1012</v>
       </c>
@@ -7726,7 +9857,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B75" s="3">
         <v>1013</v>
       </c>
@@ -7737,7 +9868,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B76" s="3">
         <v>1014</v>
       </c>
@@ -7748,7 +9879,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B77" s="3">
         <v>1015</v>
       </c>
@@ -7757,6 +9888,86 @@
       </c>
       <c r="D77" s="3">
         <v>140000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="12"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B83" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B85" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B86" s="11">
+        <v>45071</v>
+      </c>
+      <c r="C86" s="3">
+        <f>SUM(D44:D56)</f>
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B87" s="11">
+        <v>45102</v>
+      </c>
+      <c r="C87" s="3">
+        <f>SUM(D57:D68)</f>
+        <v>1520000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B88" s="11">
+        <v>45132</v>
+      </c>
+      <c r="C88" s="3">
+        <f>SUM(D69:D77)</f>
+        <v>1320000</v>
       </c>
     </row>
   </sheetData>
@@ -7775,9 +9986,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AF118"/>
+  <dimension ref="A2:AF149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -7818,70 +10029,69 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B11" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="8" t="s">
+    <row r="18" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="9" t="s">
+    <row r="19" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="9" t="s">
+    <row r="20" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="9" t="s">
+    <row r="21" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B22" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B23" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" collapsed="1" x14ac:dyDescent="0.4"/>
+        <v>141</v>
+      </c>
+    </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>52</v>
@@ -7892,7 +10102,7 @@
         <v>53</v>
       </c>
       <c r="Y26" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.4">
@@ -7900,7 +10110,7 @@
         <v>55</v>
       </c>
       <c r="Z27" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.4">
@@ -7908,15 +10118,15 @@
         <v>54</v>
       </c>
       <c r="AA28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Z29" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.4">
@@ -7924,506 +10134,978 @@
         <v>56</v>
       </c>
       <c r="AA30" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.4">
       <c r="B32" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="8" t="s">
+    <row r="45" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="9" t="s">
+    </row>
+    <row r="46" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="9" t="s">
+    <row r="47" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="R48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="R47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B52" s="9"/>
     </row>
-    <row r="53" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B53" s="9"/>
     </row>
-    <row r="54" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B54" s="9"/>
     </row>
-    <row r="55" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B55" s="9"/>
     </row>
-    <row r="56" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B56" s="9"/>
     </row>
-    <row r="57" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B57" s="9"/>
     </row>
-    <row r="58" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B58" s="9"/>
     </row>
-    <row r="59" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B59" s="9"/>
     </row>
-    <row r="60" spans="1:2" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="B60" s="9"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B62" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="B66" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B67" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="8" t="s">
+    <row r="74" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="9" t="s">
+    <row r="75" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B77" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B78" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF86" s="10"/>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="B89" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B91" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B92" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B93" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B94" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B95" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B96" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B97" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B99" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B100" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B101" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B102" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B103" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B104" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B105" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B106" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B107" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B108" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B109" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B110" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B111" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B112" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="69" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="9" t="s">
+    <row r="113" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B113" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="71" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="75" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="77" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
-    <row r="79" spans="1:32" collapsed="1" x14ac:dyDescent="0.4"/>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="B81" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF81" t="s">
+    <row r="114" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B114" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B115" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B116" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B117" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B120" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B121" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B122" t="s">
+        <v>86</v>
+      </c>
+      <c r="S122" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B124" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B125" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B126" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B127" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B128" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B129" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B130" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B132" s="9" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="B82" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF82" s="10" t="s">
+    <row r="133" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B133" s="9" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="B83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.4">
-      <c r="B85" s="7" t="s">
+    <row r="134" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B134" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="8" t="s">
+    <row r="135" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B135" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="88" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="90" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="91" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="94" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="95" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="2:32" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="9" t="s">
+    <row r="136" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B136" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="99" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="9" t="s">
+    <row r="137" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B137" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B138" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B139" s="9" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="9" t="s">
+    <row r="140" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B140" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B141" s="9" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="9" t="s">
+    <row r="142" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B142" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B143" s="9" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="102" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="9" t="s">
+    <row r="144" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B144" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B145" s="9" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="103" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="9" t="s">
+    <row r="146" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B146" s="9" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="104" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="9" t="s">
+    <row r="147" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B147" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="9" t="s">
+    <row r="148" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4">
+      <c r="B148" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B108" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B111" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
-      <c r="B112" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4"/>
-    <row r="114" spans="1:2" collapsed="1" x14ac:dyDescent="0.4"/>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B116" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B117" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B118" t="s">
-        <v>86</v>
-      </c>
-    </row>
+    <row r="149" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="AF82" r:id="rId1" xr:uid="{F475ED1E-12E1-4975-A99A-D102E1D1A847}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:B28"/>
+  <dimension ref="A2:AI40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="16"/>
+      <c r="Q13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="M14" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="N14" s="35"/>
+      <c r="O14" s="19"/>
+      <c r="R14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="I15" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="R15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="O16" s="19"/>
+      <c r="R16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B17" s="17"/>
+      <c r="C17" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="N17" s="33"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B18" s="17"/>
+      <c r="C18" s="23">
+        <v>1001</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="26">
+        <v>133333</v>
+      </c>
+      <c r="N18" s="24"/>
+      <c r="O18" s="19"/>
+      <c r="Q18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B19" s="17"/>
+      <c r="C19" s="23">
+        <v>1003</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L19" s="30"/>
+      <c r="M19" s="26">
+        <v>120000</v>
+      </c>
+      <c r="N19" s="24"/>
+      <c r="O19" s="19"/>
+      <c r="R19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B20" s="17"/>
+      <c r="C20" s="23">
+        <v>1010</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" s="30"/>
+      <c r="M20" s="26">
+        <v>175000</v>
+      </c>
+      <c r="N20" s="24"/>
+      <c r="O20" s="19"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B21" s="17"/>
+      <c r="C21" s="23">
+        <v>1011</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="26">
+        <v>150000</v>
+      </c>
+      <c r="N21" s="24"/>
+      <c r="O21" s="19"/>
+      <c r="R21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B22" s="17"/>
+      <c r="C22" s="23">
+        <v>1012</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="26">
+        <v>156666</v>
+      </c>
+      <c r="N22" s="24"/>
+      <c r="O22" s="19"/>
+      <c r="S22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="Q24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="B31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>97</v>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E17:F17"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
